--- a/SCHEMATIC/OUT FILES/ST-LinkV2/BOM/BOM.xlsx
+++ b/SCHEMATIC/OUT FILES/ST-LinkV2/BOM/BOM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3. Схемы\Личные проекты\STLinkV2\SCHEMATIC\OUT FILES\ST-LinkV2\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Денис\OneDrive\1. Проекты\STLinkV2\SCHEMATIC\OUT FILES\ST-LinkV2\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -281,7 +281,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -297,6 +297,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,7 +346,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -339,6 +357,27 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -622,7 +661,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,181 +699,181 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="H3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="3">
+      <c r="G5" s="4"/>
+      <c r="H5" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4">
         <v>805</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="G6" s="4"/>
+      <c r="H6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2" t="s">
+      <c r="F7" s="7"/>
+      <c r="G7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="H7" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="H8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2" t="s">
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="H9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="3">
+      <c r="G10" s="4"/>
+      <c r="H10" s="5">
         <v>1</v>
       </c>
     </row>
@@ -992,85 +1031,85 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2" t="s">
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="3">
+      <c r="G18" s="10"/>
+      <c r="H18" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2" t="s">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="H19" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="H19" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2" t="s">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="G20" s="7"/>
+      <c r="H20" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2" t="s">
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="3">
+      <c r="G21" s="7"/>
+      <c r="H21" s="8">
         <v>1</v>
       </c>
     </row>
